--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3725.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3725.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3725</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Timothy David Paine</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3006</t>
+          <t>3006</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3009</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3010</t>
+          <t>3010</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3012</t>
+          <t>3012</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3015</t>
+          <t>3015</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3017</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3018</t>
+          <t>3018</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3019</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3024</t>
+          <t>3024</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3028</t>
+          <t>3028</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1023,7 +1088,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3030</t>
+          <t>3030</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1075,7 +1140,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3032</t>
+          <t>3032</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1127,7 +1192,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3034</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1179,7 +1244,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3040</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1231,7 +1296,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3042</t>
+          <t>3042</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1283,7 +1348,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3084</t>
+          <t>3084</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1335,7 +1400,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3085</t>
+          <t>3085</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1387,7 +1452,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3124</t>
+          <t>3124</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1439,7 +1504,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3129</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1491,7 +1556,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3131</t>
+          <t>3131</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1543,7 +1608,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3133</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1595,7 +1660,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3134</t>
+          <t>3134</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1647,7 +1712,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3141</t>
+          <t>3141</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1699,7 +1764,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3193</t>
+          <t>3193</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1751,7 +1816,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3233</t>
+          <t>3233</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1803,7 +1868,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3286</t>
+          <t>3286</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1855,7 +1920,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1907,7 +1972,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1959,7 +2024,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2011,7 +2076,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2063,7 +2128,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2115,7 +2180,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2167,7 +2232,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2219,7 +2284,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2271,7 +2336,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2302,6 +2367,587 @@
       <c r="J36" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3084</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7.11%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3085</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3124</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.06%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3129</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>9.74%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3131</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6.69%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3133</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.75%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3134</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2.76%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3141</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>19.49%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3193</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3.11%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3233</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3286</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10.84%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12.69%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>13.77%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5.61%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4168</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3725.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3725.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3725.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3725.xlsx
@@ -2381,7 +2381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2424,15 +2424,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3084</t>
+          <t>3006</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.11%</t>
+          <t>8.41%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2454,7 +2454,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3085</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -2470,27 +2470,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3124</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>35.06%</t>
-        </is>
-      </c>
+          <t>3010</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2500,27 +2486,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3129</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9.74%</t>
-        </is>
-      </c>
+          <t>3012</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2530,7 +2502,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3131</t>
+          <t>3015</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2538,7 +2510,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2548,7 +2520,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.69%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2560,7 +2532,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2568,7 +2540,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2578,7 +2550,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20.75%</t>
+          <t>5.30%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2590,27 +2562,13 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3134</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.76%</t>
-        </is>
-      </c>
+          <t>3018</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2620,7 +2578,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3141</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2628,7 +2586,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2638,7 +2596,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>19.49%</t>
+          <t>2.27%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2650,27 +2608,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3193</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.11%</t>
-        </is>
-      </c>
+          <t>3024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2680,27 +2624,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3233</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.79%</t>
-        </is>
-      </c>
+          <t>3028</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2710,7 +2640,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3286</t>
+          <t>3030</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -2726,13 +2656,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4108</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>3032</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.55%</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2742,27 +2686,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4117</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10.84%</t>
-        </is>
-      </c>
+          <t>3034</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2772,27 +2702,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4123</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>12.69%</t>
-        </is>
-      </c>
+          <t>3040</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2802,25 +2718,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4125</t>
+          <t>3042</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>13.77%</t>
+          <t>3.14%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2832,15 +2748,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4166</t>
+          <t>3084</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2850,7 +2766,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.61%</t>
+          <t>7.11%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2862,7 +2778,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4167</t>
+          <t>3085</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -2878,25 +2794,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4168</t>
+          <t>3124</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.09%</t>
+          <t>35.06%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2908,13 +2824,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4169</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+          <t>3129</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>9.74%</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2924,28 +2854,422 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>3131</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6.69%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3133</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.75%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3134</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2.76%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3141</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>19.49%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3193</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3.11%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3233</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3286</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10.84%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>12.69%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>13.77%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5.61%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4168</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>4170</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B36" t="n">
         <v>6</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>0.49%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
